--- a/Resources/2013/Basic_Percentile_2013.xlsx
+++ b/Resources/2013/Basic_Percentile_2013.xlsx
@@ -1801,7 +1801,7 @@
     <t>Mo Williams</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Lou Williams</t>
@@ -2017,7 +2017,7 @@
     <t>Kyle Singler</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Michael Beasley</t>
@@ -2032,7 +2032,7 @@
     <t>James Johnson</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Jordan Crawford</t>
@@ -2635,7 +2635,7 @@
     <t>Dexter Pittman</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>James Anderson</t>
